--- a/KGIC_RPG/Assets/Editor/Data/RPGData.xlsx
+++ b/KGIC_RPG/Assets/Editor/Data/RPGData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KGIC\KGIC_RPG\Assets\Editor\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KGIC\KGIC3RDSemester\KGIC_RPG\Assets\Editor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68909FD7-347A-416C-948E-5596231F8EC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A98913F-161C-46FD-9DC9-056C99C536C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -445,13 +445,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>120</v>
@@ -478,7 +478,7 @@
       </c>
       <c r="D4">
         <f>D3+2</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>140</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D12" si="0">D4+2</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>160</v>
@@ -532,7 +532,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>180</v>
@@ -559,7 +559,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>200</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>220</v>
@@ -613,7 +613,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>240</v>
@@ -640,7 +640,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>260</v>
@@ -667,7 +667,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>280</v>
@@ -694,7 +694,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>300</v>
@@ -721,7 +721,7 @@
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -762,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>2</v>
